--- a/DataSources/CensusData/Team1_EB_QuestionsDataSources/OriginalExcelFiles_reference/1_CensusData_EconomicCharacteristsics_EB_Team1.xlsx
+++ b/DataSources/CensusData/Team1_EB_QuestionsDataSources/OriginalExcelFiles_reference/1_CensusData_EconomicCharacteristsics_EB_Team1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF029C-535D-49F4-BB0B-8A4EC3CFF369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CF323C-B3EF-4B42-A966-ADE840CECDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58695" yWindow="6960" windowWidth="16410" windowHeight="13050" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="5340" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EconomicCharacteristics" sheetId="2" r:id="rId1"/>
@@ -856,11 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3336,11 +3333,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADADA3DD-7E31-4A8B-968D-351BFA75C957}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
